--- a/핀번호.xlsx
+++ b/핀번호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Temi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA0D24-88B8-4FEF-ADC5-0C16E498A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9154A17-6518-49DA-AF5F-E0F36D9BA537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t>GPIO 0 (ID_SD)</t>
   </si>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>초음파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +309,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="00"/>
+    <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -344,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -368,7 +376,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode="00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -381,13 +395,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode="00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="176" formatCode="00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -410,29 +418,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35B4194A-1321-44EA-B5A2-384E510F6BBD}" name="표2" displayName="표2" ref="B5:I25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35B4194A-1321-44EA-B5A2-384E510F6BBD}" name="표2" displayName="표2" ref="B5:I25" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B5:I25" xr:uid="{35B4194A-1321-44EA-B5A2-384E510F6BBD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D3FD8695-DC48-482F-A98F-18A38695E103}" name="PIN" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0CA31CC5-12BC-4105-A0E3-7C80EE887025}" name="NAME" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F19D748C-BE5E-4CB3-BE64-FFD92C2D3E62}" name="사용유무" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C20D1AF9-5FC2-40A6-AEDE-A517DA3F70D7}" name="노드" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F4B900BF-87CE-4D02-82E3-7E2C093654CA}" name="PIN2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DAE1285D-B19C-404E-A38C-AAB5B5E30094}" name="NAME2" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{10D7A292-DDC8-452D-B580-F8F8F6631709}" name="사용유무2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{A4B5AE98-2E57-4082-8CB8-73846290EEFE}" name="노드2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D3FD8695-DC48-482F-A98F-18A38695E103}" name="PIN" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0CA31CC5-12BC-4105-A0E3-7C80EE887025}" name="NAME" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F19D748C-BE5E-4CB3-BE64-FFD92C2D3E62}" name="사용유무" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C20D1AF9-5FC2-40A6-AEDE-A517DA3F70D7}" name="노드" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{F4B900BF-87CE-4D02-82E3-7E2C093654CA}" name="PIN2" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{DAE1285D-B19C-404E-A38C-AAB5B5E30094}" name="NAME2" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{10D7A292-DDC8-452D-B580-F8F8F6631709}" name="사용유무2" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A4B5AE98-2E57-4082-8CB8-73846290EEFE}" name="노드2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49DC987-D6A9-4B1B-A656-2C88C7B6EAAE}" name="표1" displayName="표1" ref="C5:E34" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E49DC987-D6A9-4B1B-A656-2C88C7B6EAAE}" name="표1" displayName="표1" ref="C5:E34" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="C5:E34" xr:uid="{E49DC987-D6A9-4B1B-A656-2C88C7B6EAAE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B2E9BE8A-2D60-47E7-A899-7828BF82292B}" name="pin" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3EF5500F-E22A-4B67-AE7F-6573D9A50D63}" name="사용여부" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{77D4A5C2-C371-494A-9D5C-50D4F4CFC587}" name="노드" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B2E9BE8A-2D60-47E7-A899-7828BF82292B}" name="pin" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3EF5500F-E22A-4B67-AE7F-6573D9A50D63}" name="사용여부" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{77D4A5C2-C371-494A-9D5C-50D4F4CFC587}" name="노드" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,7 +712,7 @@
   <dimension ref="B5:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -993,9 +1001,11 @@
         <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
@@ -1017,9 +1027,11 @@
         <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
@@ -1039,9 +1051,11 @@
         <v>59</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
@@ -1061,9 +1075,11 @@
         <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
@@ -1120,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2">
         <v>34</v>
@@ -1144,7 +1160,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2">
         <v>36</v>
@@ -1168,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2">
         <v>38</v>

--- a/핀번호.xlsx
+++ b/핀번호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Temi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9154A17-6518-49DA-AF5F-E0F36D9BA537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361A9EF2-1563-46F2-A23E-C60C80CBF441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>GPIO 0 (ID_SD)</t>
   </si>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69048BC-46CF-425F-AE89-A78F2A21E648}">
-  <dimension ref="B5:I25"/>
+  <dimension ref="B3:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,6 +727,11 @@
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>66</v>
